--- a/ig/ch-vacd/ValueSet-ch-vacd-entry-conflict-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-entry-conflict-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>4.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T13:48:44+01:00</t>
+    <t>2023-06-29T17:22:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,7 +93,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>CC-BY-SA-4.0</t>
+    <t>CC0-1.0</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -236,10 +236,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/ig/ch-vacd/ValueSet-ch-vacd-entry-conflict-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-entry-conflict-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T09:30:51+01:00</t>
+    <t>2023-12-28T11:15:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-vacd/ValueSet-ch-vacd-entry-conflict-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-entry-conflict-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T11:15:40+01:00</t>
+    <t>2024-05-17T07:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-vacd/ValueSet-ch-vacd-entry-conflict-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-entry-conflict-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Entry Conflict C" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T07:15:18+00:00</t>
+    <t>2024-12-18T07:33:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-vacd/ValueSet-ch-vacd-entry-conflict-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-entry-conflict-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T07:33:04+00:00</t>
+    <t>2025-05-22T09:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
     <t>Immutable</t>
   </si>
   <si>
-    <t>BooleanType[true]</t>
+    <t>BooleanType[null]</t>
   </si>
   <si>
     <t>Concept</t>

--- a/ig/ch-vacd/ValueSet-ch-vacd-entry-conflict-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-entry-conflict-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T09:46:13+00:00</t>
+    <t>2025-12-16T10:03:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
